--- a/IMPS_Daily_Status_Report_(01-11-2019).xlsx
+++ b/IMPS_Daily_Status_Report_(01-11-2019).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15600" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IMPS_Server_Status" sheetId="1" r:id="rId1"/>
@@ -991,32 +991,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,11 +1027,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,15 +1046,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,33 +1366,33 @@
   <sheetData>
     <row r="5" spans="3:15" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="3:15">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="41" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="43"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="40"/>
-      <c r="D7" s="44"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1417,7 +1417,7 @@
       <c r="L7" s="2">
         <v>0.95833333333333337</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="27" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -1443,10 +1443,10 @@
       <c r="M8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="43" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1466,8 +1466,8 @@
       <c r="M9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="48"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="44"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="1"/>
@@ -1485,7 +1485,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -1502,10 +1502,10 @@
       <c r="M11" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="O11" s="50" t="s">
+      <c r="O11" s="47" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1525,8 +1525,8 @@
       <c r="M12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="48"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="1"/>
@@ -1594,17 +1594,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1615,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AB26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1629,46 +1629,46 @@
   <sheetData>
     <row r="2" spans="2:28" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:28">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="43"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="2:28">
       <c r="B4" s="40"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="27" t="s">
         <v>16</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="51" t="s">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="53"/>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="27" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="53"/>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="27" t="s">
         <v>43</v>
       </c>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="10" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B10" s="40"/>
-      <c r="C10" s="44"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="27" t="s">
         <v>43</v>
       </c>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="13" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="48" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -2382,7 +2382,7 @@
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="53"/>
-      <c r="C14" s="44"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="27" t="s">
         <v>43</v>
       </c>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="16" spans="2:28">
       <c r="B16" s="53"/>
-      <c r="C16" s="44"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="27" t="s">
         <v>43</v>
       </c>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="53"/>
-      <c r="C18" s="44"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="27" t="s">
         <v>43</v>
       </c>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="53"/>
-      <c r="C20" s="44"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="27" t="s">
         <v>43</v>
       </c>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="53"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="27" t="s">
         <v>43</v>
       </c>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="53"/>
-      <c r="C24" s="44"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="27" t="s">
         <v>43</v>
       </c>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" thickBot="1">
       <c r="B26" s="40"/>
-      <c r="C26" s="44"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="20" t="s">
         <v>43</v>
       </c>
@@ -3493,6 +3493,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E3:AB3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
@@ -3504,11 +3509,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E3:AB3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6777,66 +6777,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B61"/>
-    <mergeCell ref="A48:A61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="A79:A90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B112:B121"/>
-    <mergeCell ref="A109:A121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B134"/>
-    <mergeCell ref="A122:A134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B145"/>
-    <mergeCell ref="A135:A145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B156"/>
-    <mergeCell ref="A146:A156"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B160:B166"/>
-    <mergeCell ref="A157:A166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B170:B177"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="A189:A195"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="B199:B204"/>
-    <mergeCell ref="A196:A204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="B209:B214"/>
-    <mergeCell ref="A205:A214"/>
     <mergeCell ref="B236:B238"/>
     <mergeCell ref="B239:B243"/>
     <mergeCell ref="A236:A243"/>
@@ -6846,6 +6786,66 @@
     <mergeCell ref="B227:B231"/>
     <mergeCell ref="B232:B235"/>
     <mergeCell ref="A227:A235"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B204"/>
+    <mergeCell ref="A196:A204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="B209:B214"/>
+    <mergeCell ref="A205:A214"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="A189:A195"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B160:B166"/>
+    <mergeCell ref="A157:A166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="B170:B177"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B145"/>
+    <mergeCell ref="A135:A145"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="A146:A156"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B121"/>
+    <mergeCell ref="A109:A121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B134"/>
+    <mergeCell ref="A122:A134"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="A48:A61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A13:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6855,7 +6855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6878,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="56"/>
@@ -6892,27 +6892,27 @@
       <c r="J2" s="56"/>
       <c r="K2" s="56"/>
       <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="28"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A5" s="32" t="s">
@@ -7494,75 +7494,75 @@
       <c r="M35" s="24"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="66">
         <f t="shared" ref="B36:M36" si="0">SUM(B6:B35)</f>
         <v>2048</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="46">
         <f t="shared" si="0"/>
         <v>202525540.09999999</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="46">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="46">
         <f t="shared" si="0"/>
         <v>202519540.09999999</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="46">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="46">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="46">
         <f t="shared" si="0"/>
         <v>10784</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="46">
         <f t="shared" si="0"/>
         <v>2809479134.9699998</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="46">
         <f t="shared" si="0"/>
         <v>9853</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="46">
         <f t="shared" si="0"/>
         <v>2809439134.9699998</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="46">
         <f t="shared" si="0"/>
         <v>931</v>
       </c>
-      <c r="M36" s="50">
+      <c r="M36" s="47">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="63"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="40"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="48"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A38" s="64"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="16" t="s">
         <v>103</v>
       </c>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="39" spans="1:13" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A39" s="29"/>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="56"/>
@@ -7610,25 +7610,17 @@
       <c r="E39" s="56"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="57" t="s">
         <v>46</v>
       </c>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
-      <c r="M39" s="57"/>
+      <c r="M39" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:M4"/>
@@ -7639,6 +7631,14 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
